--- a/xlsx/感冒_intext.xlsx
+++ b/xlsx/感冒_intext.xlsx
@@ -29,7 +29,7 @@
     <t>维基百科</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_感冒</t>
+    <t>政策_政策_混合动力车辆_感冒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%BB%E5%A1%9E</t>
